--- a/Appendix/2. Project Management/2.5 Risk Assesment/2.5 Risk_Assesment.xlsx
+++ b/Appendix/2. Project Management/2.5 Risk Assesment/2.5 Risk_Assesment.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
